--- a/Facturas.xlsx
+++ b/Facturas.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agustin Bustos\Desktop\RPA - Contatech 2\Mandar Facturas\Descargar Facturas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descargar-y-Enviar-Facturas-de-1-contribuyente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB91B889-474F-4013-ADEE-A6118A943875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C98596-DFE1-4BD2-AD4D-41B5A9A94FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mails" sheetId="3" r:id="rId1"/>
     <sheet name="Facturas" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Facturas!$A$1:$V$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Facturas!$A$1:$W$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Mails!$A$1:$D$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
   <si>
     <t>Fecha</t>
   </si>
@@ -111,13 +111,19 @@
   </si>
   <si>
     <t>20xxxxxxxxx</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -144,12 +150,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -207,18 +215,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
@@ -242,9 +248,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -282,7 +288,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -388,7 +394,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -530,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -540,11 +546,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F770F6F-E4CC-43C8-AD6D-F7C17E45CE7C}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
@@ -552,8 +558,8 @@
     <col min="4" max="4" width="53.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -562,255 +568,255 @@
       <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="11"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="11"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="11"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="13"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="13"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="13"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="13"/>
+      <c r="B25" s="11"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="11"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="13"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="13"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="13"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="13"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
     </row>
@@ -825,1086 +831,1182 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="5" customWidth="1"/>
-    <col min="4" max="5" width="15.5703125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="5" customWidth="1"/>
-    <col min="7" max="8" width="23.42578125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="52" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="5" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="26" style="5" customWidth="1"/>
-    <col min="14" max="14" width="20.85546875" style="5" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" style="5" customWidth="1"/>
-    <col min="16" max="16" width="13" style="5" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="5"/>
-    <col min="18" max="18" width="15.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25" style="5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="5"/>
-    <col min="21" max="21" width="21" style="5" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" customWidth="1"/>
+    <col min="7" max="8" width="23.42578125" customWidth="1"/>
+    <col min="9" max="9" width="52" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="14" max="14" width="20.85546875" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="O1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="R2" s="8" t="str">
-        <f t="shared" ref="R2:R28" si="0">CONCATENATE(TEXT(C2,"0000"),"-",TEXT(D2,"00000000"))</f>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S2" s="9" t="e">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="7" t="str">
+        <f t="shared" ref="S2:S28" si="0">CONCATENATE(TEXT(C2,"0000"),"-",TEXT(D2,"00000000"))</f>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T2" s="7" t="e">
         <f>"Honorarios "&amp;PROPER(TEXT(A2-15,"mmmm"))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T2" s="8" t="str">
-        <f t="shared" ref="T2:T28" si="1">CONCATENATE(H2,"_",TEXT(LEFT(B2,1),"000"),"_",TEXT(C2,"00000"),"_",TEXT(D2,"00000000"),"_",I2,".pdf")</f>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U2" s="8" t="str">
+      <c r="U2" s="7" t="str">
+        <f t="shared" ref="U2:U28" si="1">CONCATENATE(H2,"_",TEXT(LEFT(B2,1),"000"),"_",TEXT(C2,"00000"),"_",TEXT(D2,"00000000"),"_",I2,".pdf")</f>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V2" s="7" t="str">
         <f>IFERROR(VLOOKUP($H2,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V2" s="8" t="str">
+      <c r="W2" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H2,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H2,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="11"/>
-      <c r="R3" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S3" s="9" t="e">
-        <f t="shared" ref="S3:S28" si="2">"Honorarios "&amp;PROPER(TEXT(A3-15,"mmmm"))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T3" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U3" s="8" t="str">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="9"/>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T3" s="7" t="e">
+        <f t="shared" ref="T3:T28" si="2">"Honorarios "&amp;PROPER(TEXT(A3-15,"mmmm"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U3" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V3" s="7" t="str">
         <f>IFERROR(VLOOKUP($H3,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V3" s="8" t="str">
+      <c r="W3" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H3,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H3,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:22">
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="R4" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S4" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T4" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U4" s="8" t="str">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S4" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T4" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U4" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V4" s="7" t="str">
         <f>IFERROR(VLOOKUP($H4,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V4" s="8" t="str">
+      <c r="W4" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H4,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H4,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:22">
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="11"/>
-      <c r="R5" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S5" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T5" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U5" s="8" t="str">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="9"/>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T5" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U5" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V5" s="7" t="str">
         <f>IFERROR(VLOOKUP($H5,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V5" s="8" t="str">
+      <c r="W5" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H5,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H5,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:22">
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="11"/>
-      <c r="R6" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S6" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T6" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U6" s="8" t="str">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="9"/>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T6" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U6" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V6" s="7" t="str">
         <f>IFERROR(VLOOKUP($H6,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V6" s="8" t="str">
+      <c r="W6" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H6,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H6,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="11"/>
-      <c r="R7" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S7" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T7" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U7" s="8" t="str">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="9"/>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T7" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U7" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V7" s="7" t="str">
         <f>IFERROR(VLOOKUP($H7,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V7" s="8" t="str">
+      <c r="W7" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H7,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H7,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="11"/>
-      <c r="R8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S8" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T8" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U8" s="8" t="str">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="9"/>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T8" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U8" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V8" s="7" t="str">
         <f>IFERROR(VLOOKUP($H8,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V8" s="8" t="str">
+      <c r="W8" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H8,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H8,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:22">
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="11"/>
-      <c r="R9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S9" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T9" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U9" s="8" t="str">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="9"/>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T9" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U9" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V9" s="7" t="str">
         <f>IFERROR(VLOOKUP($H9,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V9" s="8" t="str">
+      <c r="W9" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H9,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H9,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:22">
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="11"/>
-      <c r="R10" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S10" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T10" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U10" s="8" t="str">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="9"/>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T10" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U10" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V10" s="7" t="str">
         <f>IFERROR(VLOOKUP($H10,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V10" s="8" t="str">
+      <c r="W10" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H10,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H10,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:22">
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="11"/>
-      <c r="R11" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S11" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T11" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U11" s="8" t="str">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="9"/>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T11" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U11" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V11" s="7" t="str">
         <f>IFERROR(VLOOKUP($H11,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V11" s="8" t="str">
+      <c r="W11" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H11,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H11,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:22">
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="11"/>
-      <c r="R12" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S12" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T12" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U12" s="8" t="str">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="9"/>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T12" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U12" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V12" s="7" t="str">
         <f>IFERROR(VLOOKUP($H12,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V12" s="8" t="str">
+      <c r="W12" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H12,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H12,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="11"/>
-      <c r="R13" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S13" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T13" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U13" s="8" t="str">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="9"/>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T13" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U13" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V13" s="7" t="str">
         <f>IFERROR(VLOOKUP($H13,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V13" s="8" t="str">
+      <c r="W13" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H13,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H13,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:22">
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="11"/>
-      <c r="R14" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S14" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T14" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U14" s="8" t="str">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="9"/>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T14" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U14" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V14" s="7" t="str">
         <f>IFERROR(VLOOKUP($H14,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V14" s="8" t="str">
+      <c r="W14" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H14,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H14,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:22">
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="P15" s="12"/>
-      <c r="R15" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S15" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T15" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U15" s="8" t="str">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="P15" s="10"/>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T15" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V15" s="7" t="str">
         <f>IFERROR(VLOOKUP($H15,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V15" s="8" t="str">
+      <c r="W15" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H15,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H15,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:22">
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="R16" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S16" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T16" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U16" s="8" t="str">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="R16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T16" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V16" s="7" t="str">
         <f>IFERROR(VLOOKUP($H16,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V16" s="8" t="str">
+      <c r="W16" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H16,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H16,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="3:22">
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="11"/>
-      <c r="R17" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S17" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T17" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U17" s="8" t="str">
+    <row r="17" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="9"/>
+      <c r="R17" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T17" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V17" s="7" t="str">
         <f>IFERROR(VLOOKUP($H17,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V17" s="8" t="str">
+      <c r="W17" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H17,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H17,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="3:22">
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="R18" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S18" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T18" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U18" s="8" t="str">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T18" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V18" s="7" t="str">
         <f>IFERROR(VLOOKUP($H18,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V18" s="8" t="str">
+      <c r="W18" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H18,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H18,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="3:22">
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="11"/>
-      <c r="R19" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S19" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T19" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U19" s="8" t="str">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="9"/>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+      <c r="S19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T19" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V19" s="7" t="str">
         <f>IFERROR(VLOOKUP($H19,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V19" s="8" t="str">
+      <c r="W19" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H19,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H19,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="3:22">
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="11"/>
-      <c r="R20" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S20" s="10" t="s">
+    <row r="20" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="9"/>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+      <c r="S20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="T20" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U20" s="8" t="str">
+      <c r="U20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V20" s="7" t="str">
         <f>IFERROR(VLOOKUP($H20,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V20" s="8" t="str">
+      <c r="W20" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H20,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H20,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="3:22">
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="11"/>
-      <c r="R21" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S21" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T21" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U21" s="8" t="str">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="9"/>
+      <c r="R21" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T21" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V21" s="7" t="str">
         <f>IFERROR(VLOOKUP($H21,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V21" s="8" t="str">
+      <c r="W21" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H21,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H21,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="3:22">
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="11"/>
-      <c r="R22" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S22" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T22" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U22" s="8" t="str">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="9"/>
+      <c r="R22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T22" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V22" s="7" t="str">
         <f>IFERROR(VLOOKUP($H22,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V22" s="8" t="str">
+      <c r="W22" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H22,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H22,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="3:22">
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="11"/>
-      <c r="R23" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S23" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T23" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U23" s="8" t="str">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="9"/>
+      <c r="R23" t="s">
+        <v>26</v>
+      </c>
+      <c r="S23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T23" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V23" s="7" t="str">
         <f>IFERROR(VLOOKUP($H23,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V23" s="8" t="str">
+      <c r="W23" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H23,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H23,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="3:22">
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="11"/>
-      <c r="R24" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S24" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T24" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U24" s="8" t="str">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="9"/>
+      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T24" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V24" s="7" t="str">
         <f>IFERROR(VLOOKUP($H24,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V24" s="8" t="str">
+      <c r="W24" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H24,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H24,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="3:22">
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="11"/>
-      <c r="R25" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S25" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T25" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U25" s="8" t="str">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="9"/>
+      <c r="R25" t="s">
+        <v>26</v>
+      </c>
+      <c r="S25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T25" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V25" s="7" t="str">
         <f>IFERROR(VLOOKUP($H25,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V25" s="8" t="str">
+      <c r="W25" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H25,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H25,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="3:22">
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="11"/>
-      <c r="R26" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S26" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T26" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U26" s="8" t="str">
+    <row r="26" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="9"/>
+      <c r="R26" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T26" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V26" s="7" t="str">
         <f>IFERROR(VLOOKUP($H26,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V26" s="8" t="str">
+      <c r="W26" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H26,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H26,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="3:22">
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="R27" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S27" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T27" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U27" s="8" t="str">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+      <c r="S27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T27" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U27" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V27" s="7" t="str">
         <f>IFERROR(VLOOKUP($H27,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V27" s="8" t="str">
+      <c r="W27" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H27,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H27,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="3:22">
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="R28" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S28" s="9" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T28" s="8" t="str">
-        <f t="shared" si="1"/>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U28" s="8" t="str">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="R28" t="s">
+        <v>26</v>
+      </c>
+      <c r="S28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T28" s="7" t="e">
+        <f t="shared" si="2"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V28" s="7" t="str">
         <f>IFERROR(VLOOKUP($H28,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V28" s="8" t="str">
+      <c r="W28" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H28,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H28,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="3:22">
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="11"/>
-      <c r="R29" s="8" t="str">
-        <f t="shared" ref="R29" si="3">CONCATENATE(TEXT(C29,"0000"),"-",TEXT(D29,"00000000"))</f>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S29" s="9" t="e">
-        <f t="shared" ref="S29" si="4">"Honorarios "&amp;PROPER(TEXT(A29-15,"mmmm"))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T29" s="8" t="str">
-        <f t="shared" ref="T29" si="5">CONCATENATE(H29,"_",TEXT(LEFT(B29,1),"000"),"_",TEXT(C29,"00000"),"_",TEXT(D29,"00000000"),"_",I29,".pdf")</f>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U29" s="8" t="str">
+    <row r="29" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="9"/>
+      <c r="R29" t="s">
+        <v>26</v>
+      </c>
+      <c r="S29" s="7" t="str">
+        <f t="shared" ref="S29" si="3">CONCATENATE(TEXT(C29,"0000"),"-",TEXT(D29,"00000000"))</f>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T29" s="7" t="e">
+        <f t="shared" ref="T29" si="4">"Honorarios "&amp;PROPER(TEXT(A29-15,"mmmm"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U29" s="7" t="str">
+        <f t="shared" ref="U29" si="5">CONCATENATE(H29,"_",TEXT(LEFT(B29,1),"000"),"_",TEXT(C29,"00000"),"_",TEXT(D29,"00000000"),"_",I29,".pdf")</f>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V29" s="7" t="str">
         <f>IFERROR(VLOOKUP($H29,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V29" s="8" t="str">
+      <c r="W29" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H29,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H29,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="3:22">
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="R30" s="8" t="str">
-        <f t="shared" ref="R30:R32" si="6">CONCATENATE(TEXT(C30,"0000"),"-",TEXT(D30,"00000000"))</f>
-        <v>0000-00000000</v>
-      </c>
-      <c r="S30" s="9" t="e">
-        <f t="shared" ref="S30:S32" si="7">"Honorarios "&amp;PROPER(TEXT(A30-15,"mmmm"))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T30" s="8" t="str">
-        <f t="shared" ref="T30:T32" si="8">CONCATENATE(H30,"_",TEXT(LEFT(B30,1),"000"),"_",TEXT(C30,"00000"),"_",TEXT(D30,"00000000"),"_",I30,".pdf")</f>
-        <v>__00000_00000000_.pdf</v>
-      </c>
-      <c r="U30" s="8" t="str">
+    <row r="30" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="R30" t="s">
+        <v>26</v>
+      </c>
+      <c r="S30" s="7" t="str">
+        <f t="shared" ref="S30:S32" si="6">CONCATENATE(TEXT(C30,"0000"),"-",TEXT(D30,"00000000"))</f>
+        <v>0000-00000000</v>
+      </c>
+      <c r="T30" s="7" t="e">
+        <f t="shared" ref="T30:T32" si="7">"Honorarios "&amp;PROPER(TEXT(A30-15,"mmmm"))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="U30" s="7" t="str">
+        <f t="shared" ref="U30:U32" si="8">CONCATENATE(H30,"_",TEXT(LEFT(B30,1),"000"),"_",TEXT(C30,"00000"),"_",TEXT(D30,"00000000"),"_",I30,".pdf")</f>
+        <v>__00000_00000000_.pdf</v>
+      </c>
+      <c r="V30" s="7" t="str">
         <f>IFERROR(VLOOKUP($H30,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V30" s="8" t="str">
+      <c r="W30" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H30,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H30,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="3:22">
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12"/>
-      <c r="R31" s="8" t="str">
+    <row r="31" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="R31" t="s">
+        <v>26</v>
+      </c>
+      <c r="S31" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0000-00000000</v>
       </c>
-      <c r="S31" s="9" t="e">
+      <c r="T31" s="7" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T31" s="8" t="str">
+      <c r="U31" s="7" t="str">
         <f t="shared" si="8"/>
         <v>__00000_00000000_.pdf</v>
       </c>
-      <c r="U31" s="8" t="str">
+      <c r="V31" s="7" t="str">
         <f>IFERROR(VLOOKUP($H31,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V31" s="8" t="str">
+      <c r="W31" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H31,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H31,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="3:22">
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="R32" s="8" t="str">
+    <row r="32" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="R32" t="s">
+        <v>26</v>
+      </c>
+      <c r="S32" s="7" t="str">
         <f t="shared" si="6"/>
         <v>0000-00000000</v>
       </c>
-      <c r="S32" s="9" t="e">
+      <c r="T32" s="7" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T32" s="8" t="str">
+      <c r="U32" s="7" t="str">
         <f t="shared" si="8"/>
         <v>__00000_00000000_.pdf</v>
       </c>
-      <c r="U32" s="8" t="str">
+      <c r="V32" s="7" t="str">
         <f>IFERROR(VLOOKUP($H32,Mails!$A:$C,2,0),"")</f>
         <v/>
       </c>
-      <c r="V32" s="8" t="str">
+      <c r="W32" s="7" t="str">
         <f>IF(IFERROR(VLOOKUP($H32,Mails!$A:$C,3,0),"")=0,"",IFERROR(VLOOKUP($H32,Mails!$A:$C,3,0),""))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V29" xr:uid="{9E7DA804-4A5E-4259-8458-4B3045EFFB55}"/>
+  <autoFilter ref="A1:W32" xr:uid="{9E7DA804-4A5E-4259-8458-4B3045EFFB55}"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R32" xr:uid="{10A04045-16D3-49DF-A112-4C7FB089A5E0}">
+      <formula1>"SI,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
